--- a/biology/Zoologie/Geocoridae/Geocoridae.xlsx
+++ b/biology/Zoologie/Geocoridae/Geocoridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Geocoridae sont une famille d'insectes hétéroptères (punaises) de la super-famille des Lygaeoidea.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Geocoridae ont un corps trapu, ovoïde à rectangulaire, de 2,5 à 6 mm de long. Comme les autres Lygaeoidea, les Geocoridae ont des antennes et un rostre de 4 articles, et dont les membranes ont 4 à 5 veines. Ils se distinguent toutefois des autres familles de Lygaeoidea par le fait d'avoir les stigmates abdominaux dorsaux, sauf ceux des segments 5 et 6, où ils sont ventraux. Les sutures entre les tergites (segments de la face supérieure de l'abdomen) 4 et 5, et 5 et 6 sont presque toujours (sauf chez les Bledionotinae) fortement incurvées vers l'arrière (alors qu'ils sont droits chez les Lygaeidae et les Blissidae). Une autre caractéristique concerne leurs yeux particuliers, souvent gros, réniformes, parfois pédonculés, et souvent projetés en arrière, jusqu'à pouvoir atteindre les bords latéraux du pronotum. Cela leur vaut le nom vernaculaire en anglais de « big eyes bugs », ou « punaises à gros yeux ». Les ocelles ne sont pas entourées d'un sillon. Le pronotum est souvent large, parfois avec un sillon transverse. Les tarses comptent 3 articles[3],[4],[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Geocoridae ont un corps trapu, ovoïde à rectangulaire, de 2,5 à 6 mm de long. Comme les autres Lygaeoidea, les Geocoridae ont des antennes et un rostre de 4 articles, et dont les membranes ont 4 à 5 veines. Ils se distinguent toutefois des autres familles de Lygaeoidea par le fait d'avoir les stigmates abdominaux dorsaux, sauf ceux des segments 5 et 6, où ils sont ventraux. Les sutures entre les tergites (segments de la face supérieure de l'abdomen) 4 et 5, et 5 et 6 sont presque toujours (sauf chez les Bledionotinae) fortement incurvées vers l'arrière (alors qu'ils sont droits chez les Lygaeidae et les Blissidae). Une autre caractéristique concerne leurs yeux particuliers, souvent gros, réniformes, parfois pédonculés, et souvent projetés en arrière, jusqu'à pouvoir atteindre les bords latéraux du pronotum. Cela leur vaut le nom vernaculaire en anglais de « big eyes bugs », ou « punaises à gros yeux ». Les ocelles ne sont pas entourées d'un sillon. Le pronotum est souvent large, parfois avec un sillon transverse. Les tarses comptent 3 articles.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille est cosmopolite. On les rencontre dans les champs, les prés et l'herbe mais également dans des habitats très variées, voire extrême (désertiques, haute montagne)[6], ainsi que la forêt tropicale (Pamphantinae)[4], ou au sol (Bledionotinae)[5]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille est cosmopolite. On les rencontre dans les champs, les prés et l'herbe mais également dans des habitats très variées, voire extrême (désertiques, haute montagne), ainsi que la forêt tropicale (Pamphantinae), ou au sol (Bledionotinae). 
 </t>
         </is>
       </c>
@@ -573,12 +589,14 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Geocorinae sont des punaises prédatrices de pucerons, d'acariens, d'oeufs de papillons et de chenilles, et sont de ce fait souvent utilisées en lutte biologique[3],[4],[6],[7]. Dès lors, plusieurs ont fait l'objet d'études en laboratoire[8],[9],[10]. 
-Il se peut qu'ils soient toutefois omnivores, et certains ont des plantes hôtes[5]. Les autres sous-familles sont phytophages et sans doute granivores. Les Henestarinae sont souvent associés à des plantes halophiles[5]. 
-Les Bledionotinae et Pamphantinae sont myrmécomorphes[4]. 
-En Europe, les Geocoridae hivernent au stade adulte. Les œufs sont pondus par les femelles sur les feuilles ou les tiges de plantes, de manière solitaire ou grégaire[6]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Geocorinae sont des punaises prédatrices de pucerons, d'acariens, d'oeufs de papillons et de chenilles, et sont de ce fait souvent utilisées en lutte biologique. Dès lors, plusieurs ont fait l'objet d'études en laboratoire. 
+Il se peut qu'ils soient toutefois omnivores, et certains ont des plantes hôtes. Les autres sous-familles sont phytophages et sans doute granivores. Les Henestarinae sont souvent associés à des plantes halophiles. 
+Les Bledionotinae et Pamphantinae sont myrmécomorphes. 
+En Europe, les Geocoridae hivernent au stade adulte. Les œufs sont pondus par les femelles sur les feuilles ou les tiges de plantes, de manière solitaire ou grégaire. 
 </t>
         </is>
       </c>
